--- a/Data/description/summary_rhesus_2022.xlsx
+++ b/Data/description/summary_rhesus_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09135171173385594</v>
+        <v>0.1060799552684645</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0115244693532355</v>
+        <v>0.01127873003014979</v>
       </c>
     </row>
     <row r="6">
@@ -546,16 +546,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.501845464691909</v>
+        <v>1.450122150259778</v>
       </c>
       <c r="C6" t="n">
-        <v>1.702111278195255</v>
+        <v>1.610332091515751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7339113493826001</v>
+        <v>0.5979002708023138</v>
       </c>
       <c r="E6" t="n">
-        <v>1.587297941876773</v>
+        <v>1.506735308394452</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +565,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.18802359441528e-05</v>
+        <v>2.595291973873745e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>8.211253228047049e-07</v>
+        <v>9.506057436816692e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>2.567429599056329e-06</v>
+        <v>2.464378434072718e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312027930532581</v>
+        <v>0.3102348442589161</v>
       </c>
     </row>
     <row r="8">
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2757777457594373</v>
+        <v>0.2828756788296438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5070667908688953</v>
+        <v>0.5270300496051571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1607347184127669</v>
+        <v>0.1726073518200838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5160897961136592</v>
+        <v>0.5197514470826129</v>
       </c>
     </row>
     <row r="9">
@@ -603,16 +603,35 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01876256455647933</v>
+        <v>0.02782983833224793</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3300695192401841</v>
+        <v>0.279444031150829</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06668113449656354</v>
+        <v>-0.06396222121074177</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08186997908640097</v>
+        <v>0.07719070177020307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>number of subgroups</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
